--- a/Standard_deviation_project.xlsx
+++ b/Standard_deviation_project.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a1f0e2689e29f14d/Desktop/Per Scholas/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\madhu\OneDrive\Desktop\Per Scholas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{008D3A6F-EC8C-4E71-BC1E-922AC2ED04D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{008D3A6F-EC8C-4E71-BC1E-922AC2ED04D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3257CCC9-2A04-44A4-84C6-D655DFC8A1BB}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Number of Books (X)</t>
   </si>
@@ -40,6 +40,24 @@
   </si>
   <si>
     <t>4.Standard Deviation</t>
+  </si>
+  <si>
+    <t>1. Enter the dataet 2 4 4 4 5 5 7 9</t>
+  </si>
+  <si>
+    <t>2. Calculate the Mean =AVERAGE(A2:A9)</t>
+  </si>
+  <si>
+    <t>3. Calculate the Squared Difference =(A2 - $B$2)^2 and drag this formula down to C9</t>
+  </si>
+  <si>
+    <t>4. Calculate the Variance =AVERAGE(C2:C9)</t>
+  </si>
+  <si>
+    <t>5. Calculate the Standard Deviation =SQRT(D2)</t>
+  </si>
+  <si>
+    <t>Comments:</t>
   </si>
 </sst>
 </file>
@@ -63,7 +81,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -79,6 +97,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -128,9 +152,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -146,9 +167,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -429,10 +451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -445,19 +467,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -465,7 +487,7 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="2">
         <f>AVERAGE(A2:A9)</f>
         <v>5</v>
       </c>
@@ -477,7 +499,7 @@
         <f>AVERAGE(C2:C9)</f>
         <v>4</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f>SQRT(D2)</f>
         <v>2</v>
       </c>
@@ -543,6 +565,37 @@
       <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="7"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
